--- a/Pull Request Here/Fireworks - 2922179297/Fireworks - 2922179297.xlsx
+++ b/Pull Request Here/Fireworks - 2922179297/Fireworks - 2922179297.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D88F2A-BE55-4F5A-BF00-5CEA94ACC32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802B99FF-D03E-4C88-BEB7-74739EA537AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,10 +549,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아름다운 불꽃 축제였어! 불꽃을 메운 하늘 곳곳에서 펑펑 터지던 게 아직도 생생해.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>잊을 수 없을 만큼 멋졌어! 폭죽이 터질 때마다 모두가 함께 하늘을 향해 바라보고 있다는 느낌이 강하게 들었어.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -602,6 +598,10 @@
   </si>
   <si>
     <t>하늘을 아름답게 빛나도록 만드는 불꽃놀이를 시작합니다. 참여자들은 평화롭고 긍정적인 기분을 느끼게 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름다운 불꽃 축제였어! 불꽃으로 메운 하늘 곳곳에서 펑펑 터지던 게 아직도 생생해.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1055,7 @@
         <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,7 +1123,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1154,10 +1154,10 @@
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,7 +1517,7 @@
         <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1688,13 +1688,13 @@
         <v>95</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1708,10 +1708,10 @@
         <v>97</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1728,10 +1728,10 @@
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1742,16 +1742,16 @@
         <v>95</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
